--- a/CountryData/Oman/Oman_Workbook.xlsx
+++ b/CountryData/Oman/Oman_Workbook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1772f7bbd67a0e3d/Documents/Munk 2020-2021/Mining Shared Value/ElledMap/CountryData/Oman/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\OneDrive\Documents\Munk 2020-2021\Mining Shared Value\ElledMap\CountryData\Oman\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{AB41282C-2F52-4258-8409-BF1A124B7178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E74D99-BDBF-48CF-880E-142CEB13D368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Oman_Popup" sheetId="1" r:id="rId1"/>
@@ -103,11 +103,107 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Procurement Opportunities Database </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">December 2020  – </t>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>–</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Procurement Opportunities Database </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>December 2020  –</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Oman’s Journey to In-Country Value: An Approach to Local Content that Works for Government and the Private Sector</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">May 2016  – </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>New Regulations Aim to Boost Mining Investment in Oman</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Organisation for Economic Co-operation and Development – </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>How to Develop a Flexible Long-Term Collaborative Approach to Job Creation and Supplier Development</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Ryan and Macdonald (2020) – </t>
     </r>
     <r>
       <rPr>
@@ -123,7 +219,14 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">May 2016  – </t>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Damilola Olawuyi (2018) –</t>
     </r>
     <r>
       <rPr>
@@ -134,69 +237,28 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>New Regulations Aim to Boost Mining Investment in Oman</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Organisation for Economic Co-operation and Development – </t>
+      <t xml:space="preserve"> Local content requirements in oil and gas contracts: regional trends in the Middle East and North Africa </t>
     </r>
     <r>
       <rPr>
         <u/>
         <sz val="11"/>
-        <color rgb="FF0070C0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>How to Develop a Flexible Long-Term Collaborative Approach to Job Creation and Supplier Development</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Ryan and Macdonald (2020) – </t>
-    </r>
+      <t>(Paywall)</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <u/>
         <sz val="11"/>
-        <color rgb="FF0070C0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Oman’s Journey to In-Country Value: An Approach to Local Content that Works for Government and the Private Sector</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Damilola Olawuyi (2018) –</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Local content requirements in oil and gas contracts: regional trends in the Middle East and North Africa</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Jered Talkin (2016) – </t>
     </r>
     <r>
@@ -215,11 +277,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="33" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -463,6 +532,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -816,135 +892,155 @@
   </borders>
   <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+  <cellXfs count="40">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="42" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1301,11 +1397,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:I29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G29"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1318,7 +1414,7 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="25"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -1331,7 +1427,7 @@
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="23" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="10"/>
@@ -1346,7 +1442,7 @@
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="24" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="10"/>
@@ -1361,7 +1457,7 @@
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="24" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="10"/>
@@ -1376,7 +1472,7 @@
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="27">
+      <c r="B6" s="24">
         <v>60</v>
       </c>
       <c r="C6" s="10"/>
@@ -1406,7 +1502,7 @@
       <c r="A8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="28"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
@@ -1427,7 +1523,7 @@
       <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:9" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="26" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="12"/>
@@ -1440,7 +1536,7 @@
       <c r="I10" s="12"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="13"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -1464,7 +1560,7 @@
       <c r="I12" s="10"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="27" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="15"/>
@@ -1490,7 +1586,7 @@
       <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="15"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -1501,7 +1597,7 @@
       <c r="I15" s="10"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="18" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="13"/>
@@ -1514,44 +1610,44 @@
       <c r="I16" s="10"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="19" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="13"/>
@@ -1564,56 +1660,56 @@
       <c r="I20" s="10"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
@@ -1640,10 +1736,10 @@
       <c r="I26" s="10"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="24"/>
+      <c r="B27" s="21"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
@@ -1652,39 +1748,42 @@
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="31" t="s">
+    <row r="28" spans="1:9" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="39"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="https://data.worldbank.org/indicator/SP.POP.TOTL?locations=OM"/>
-    <hyperlink ref="B4" r:id="rId2" display="https://data.worldbank.org/indicator/TX.VAL.MMTL.ZS.UN?locations=OM"/>
-    <hyperlink ref="B5" r:id="rId3" display="https://data.worldbank.org/indicator/TX.VAL.FUEL.ZS.UN?locations=OM"/>
-    <hyperlink ref="B6" r:id="rId4" display="http://hdr.undp.org/en/content/latest-human-development-index-ranking"/>
-    <hyperlink ref="A10" r:id="rId5" display="https://atlas.cid.harvard.edu/countries/167/export-basket"/>
-    <hyperlink ref="A13" r:id="rId6" display="https://isa.org.jm/files/documents/EN/NatLeg/Oman-RD8-2011-En.pdf"/>
-    <hyperlink ref="A17" r:id="rId7" display="https://dai-global-developments.com/articles/omans-journey-to-in-country-value-an-approach-to-local-content-that-works-for-government-and-the-private-sector"/>
-    <hyperlink ref="A18" r:id="rId8" display="https://oxfordbusinessgroup.com/news/new-regulations-aim-boost-mining-investment-oman?utm_content=buffer8461a&amp;utm_medium=social&amp;utm_source=twitter.com&amp;utm_campaign=buffer"/>
-    <hyperlink ref="A21" r:id="rId9" display="https://www.oecd.org/dev/In-Country_Value_Strategy_Oman.pdf"/>
-    <hyperlink ref="A22" r:id="rId10" display="https://dai-global-developments.com/articles/omans-journey-to-in-country-value-an-approach-to-local-content-that-works-for-government-and-the-private-sector"/>
-    <hyperlink ref="A23" r:id="rId11" display="https://www.tandfonline.com/doi/abs/10.1080/02646811.2018.1477494?journalCode=rnrl20&amp;"/>
-    <hyperlink ref="A24" r:id="rId12" display="https://ccsi.columbia.edu/sites/default/files/content/docs/our focus/Oman_Iron-ore-Downstream-Beneficiation-Case-Study_March-2016-_CCSI.pdf"/>
-    <hyperlink ref="A28" r:id="rId13" display="http://www.incountryvalueoman.net/Opportunities-Status"/>
+    <hyperlink ref="B3" r:id="rId1" display="https://data.worldbank.org/indicator/SP.POP.TOTL?locations=OM" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId2" display="https://data.worldbank.org/indicator/TX.VAL.MMTL.ZS.UN?locations=OM" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B5" r:id="rId3" display="https://data.worldbank.org/indicator/TX.VAL.FUEL.ZS.UN?locations=OM" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B6" r:id="rId4" display="http://hdr.undp.org/en/content/latest-human-development-index-ranking" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A10" r:id="rId5" display="https://atlas.cid.harvard.edu/countries/167/export-basket" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A13" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A17" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A18" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A21" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A22" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A23" r:id="rId11" display="Damilola Olawuyi (2018) – Local content requirements in oil and gas contracts: regional trends in the Middle East and North Africa" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="A24" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A28" r:id="rId13" display="http://www.incountryvalueoman.net/Opportunities-Status" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId14"/>
   <webPublishItems count="1">
-    <webPublishItem id="12835" divId="Oman_Workbook_12835" sourceType="range" sourceRef="A1:G29" destinationFile="C:\Users\zacha\OneDrive\Documents\Munk 2020-2021\Mining Shared Value\ElledMap\CountryData\Oman\Oman_Popup.htm" autoRepublish="1"/>
+    <webPublishItem id="7919" divId="Oman_Workbook_7919" sourceType="range" sourceRef="A1:G29" destinationFile="C:\Users\zacha\OneDrive\Documents\Munk 2020-2021\Mining Shared Value\ElledMap\CountryData\Oman\Page.mht" autoRepublish="1"/>
   </webPublishItems>
 </worksheet>
 </file>